--- a/biology/Microbiologie/Spirotrichea/Spirotrichea.xlsx
+++ b/biology/Microbiologie/Spirotrichea/Spirotrichea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spirotrichea sont une classe de protistes de l'embranchement des Ciliés (Ciliophora).
 </t>
@@ -511,19 +523,21 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (11 février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (11 février 2023) :
 Kiitrichida
 Licnophorida
 Odontostomatida
 Phacodiniida
 Protocruziida
-Selon l'AlgaeBase                                           (11 février 2023)[2] :
+Selon l'AlgaeBase                                           (11 février 2023) :
 Choreotrichia Small &amp; Lynn, 1985
 Choreotrichida
 Tintinnida Kofoid &amp; Campbell, 1929
-Selon le World Register of Marine Species                               (11 février 2023)[3]
+Selon le World Register of Marine Species                               (11 février 2023)
 Euplotida
 Kiitrichida
 Licnophorida
@@ -567,10 +581,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Spirotrichea Bütschli, 1889[4].
-C'est aussi dans ce groupe que l'on range souvent les calpionelles, des fossiles très abondants au Crétacé, qui appartiennent, selon GBIF       (11 février 2023)[1], à la classe des Oligotrichea, l'ordre de Oligotrichida et la famille des Calpionellidae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Spirotrichea Bütschli, 1889.
+C'est aussi dans ce groupe que l'on range souvent les calpionelles, des fossiles très abondants au Crétacé, qui appartiennent, selon GBIF       (11 février 2023), à la classe des Oligotrichea, l'ordre de Oligotrichida et la famille des Calpionellidae.
 </t>
         </is>
       </c>
